--- a/biology/Médecine/Centre_hospitalier_universitaire/Centre_hospitalier_universitaire.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire/Centre_hospitalier_universitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un centre hospitalier universitaire (CHU) est un hôpital lié à une université. Cet hôpital est soit un service de l'université, soit une entité distincte liée à cette dernière par une convention. Le CHU peut ainsi permettre la formation théorique et pratique des futurs professionnels médicaux, personnels paramédicaux et chercheurs en sciences de la santé.
 </t>
@@ -511,7 +523,9 @@
           <t>Algérie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Région Centre :
@@ -562,24 +576,26 @@
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Francophone :
 Cliniques universitaires Saint-Luc (Bruxelles), appartenant à l'UCLouvain ;
-CHU UCLouvain Namur (trois sites : Mont-Godinne, Dinant et Salzinnes), appartenant à l'UCLouvain[1] ;
-Hôpital Érasme (Bruxelles), appartenant à l'ULB[2] ;
-CHU de Charleroi (comprend plusieurs sites dans l'agglomération de Charleroi), lié à l'ULB[3] ;
-CHU Tivoli (La Louvière), lié à l'ULB[4] ;
-Centre hospitalier universitaire de Bruxelles (comprend plusieurs sites dans la région de Bruxelles-Capitale), lié à l'ULB et à la VUB[5],[6] ;
+CHU UCLouvain Namur (trois sites : Mont-Godinne, Dinant et Salzinnes), appartenant à l'UCLouvain ;
+Hôpital Érasme (Bruxelles), appartenant à l'ULB ;
+CHU de Charleroi (comprend plusieurs sites dans l'agglomération de Charleroi), lié à l'ULB ;
+CHU Tivoli (La Louvière), lié à l'ULB ;
+Centre hospitalier universitaire de Bruxelles (comprend plusieurs sites dans la région de Bruxelles-Capitale), lié à l'ULB et à la VUB, ;
 Centre hospitalier universitaire de Liège (comprend plusieurs sites dans l'agglomération de Liège), appartenant à l'ULiège ;
 CHU Ambroise Paré (Mons), lié à l'ULB et l'UMons.
 Néerlandophone :
-UZ Leuven (Louvain), lié à la KU Leuven[7] ;
-UZ Antwerpen (Anvers), lié à l'UA[8] ;
-UZ Brussel (Bruxelles), lié à la VUB[9] ;
-UZC Brussel (Bruxelles), lié à l'ULB et à la VUB[5],[6] ;
-UZ Gent (en) (Gand) lié à l'UGent[10].
+UZ Leuven (Louvain), lié à la KU Leuven ;
+UZ Antwerpen (Anvers), lié à l'UA ;
+UZ Brussel (Bruxelles), lié à la VUB ;
+UZC Brussel (Bruxelles), lié à l'ULB et à la VUB, ;
+UZ Gent (en) (Gand) lié à l'UGent.
 </t>
         </is>
       </c>
@@ -608,14 +624,16 @@
           <t>Bénin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Centre Hospitalier Universitaire Départemental De L'Ouémé et du Plateau : CHUD-OP
 Centre National Hospitalier Et Universitaire De Cotonou : CNHU
 Hôpital d'instruction des armées, Centre Hospitalier et Universitaire Hubert koutoukou Maga de Cotonou :HIA-CHU HKM
 Centre National Hospitalier Universitaire De Psychiatrie De Cotonou : CNHUP
 Centre Hospitalier Universitaire de La Mère et De L'Enfant Lagune de Cotonou : CHU-MEL (ex HOMEL)
-Centre National Hospitalier et Universitaire de Pneumo-phtisiologie (CNHU-PP/C, PNT Bénin)[11],[12],[13]</t>
+Centre National Hospitalier et Universitaire de Pneumo-phtisiologie (CNHU-PP/C, PNT Bénin)</t>
         </is>
       </c>
     </row>
@@ -643,7 +661,9 @@
           <t>Burkina Faso</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Centre hospitalier universitaire Yalgado-Ouédraogo ;
 Centre hospitalier universitaire Souro-Sanou.</t>
@@ -676,13 +696,86 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nouveau-Brunswick
-Centre hospitalier universitaire Dr-Georges-L.-Dumont.
-Ontario
-L'Ontario compte plusieurs centres hospitaliers universitaires affiliés à une faculté de médecine. Cependant, un seul offre un milieu d'enseignement clinique et de recherche en français.
-Hôpital Montfort, à Ottawa, affilié à l'Université d'Ottawa.
-Québec
-Le Québec compte quatre centres hospitaliers universitaires francophones et un anglophone, qui sont constitués d'un nombre variable d'établissements fonctionnant en réseaux (Réseau universitaire intégré de santé) :
+          <t>Nouveau-Brunswick</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Centre hospitalier universitaire Dr-Georges-L.-Dumont.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ontario</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'Ontario compte plusieurs centres hospitaliers universitaires affiliés à une faculté de médecine. Cependant, un seul offre un milieu d'enseignement clinique et de recherche en français.
+Hôpital Montfort, à Ottawa, affilié à l'Université d'Ottawa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Québec compte quatre centres hospitaliers universitaires francophones et un anglophone, qui sont constitués d'un nombre variable d'établissements fonctionnant en réseaux (Réseau universitaire intégré de santé) :
 Francophones :
 centre hospitalier de l’Université de Montréal (CHUM), à Montréal, affilié à l'Université de Montréal ;
 Hôpital du Sacré-Cœur de Montréal, à Montréal, affilié à l'Université de Montréal ;
@@ -695,67 +788,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Corée du Nord</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Hôpital de maternité de Pyongyang à Pyongyang en Corée du Nord (Capacité : 1 500 lits).</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Espagne</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Hôpital universitaire Nuestra Señora de Candelaria (HUNSC), à Santa Cruz de Tenerife ;
-Hôpital universitaire des Canaries (HUC), à San Cristóbal de La Laguna.</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
@@ -777,10 +809,16 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Corée du Nord</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hôpital de maternité de Pyongyang à Pyongyang en Corée du Nord (Capacité : 1 500 lits).</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -803,13 +841,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Maroc</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Maroc compte dix CHU opérationnels et trois autres en cours de construction à Agadir, Laâyoune et Errachidia :
-</t>
+          <t>Espagne</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hôpital universitaire Nuestra Señora de Candelaria (HUNSC), à Santa Cruz de Tenerife ;
+Hôpital universitaire des Canaries (HUC), à San Cristóbal de La Laguna.</t>
         </is>
       </c>
     </row>
@@ -834,14 +874,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Hôpital universitaire d'Ibadan.</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -864,10 +902,77 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Maroc</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Maroc compte dix CHU opérationnels et trois autres en cours de construction à Agadir, Laâyoune et Errachidia :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hôpital universitaire d'Ibadan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Pays-Bas</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Centre hospitalier Érasme de Rotterdam ;
@@ -882,31 +987,33 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Pologne</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Les centres hospitaliers universitaires ont en Pologne la désignation de « (pl) Szpital kliniczny ». Ils sont rattachés aux universités ou facultés de médecine et, dans certains cas, à d'autres structures comme l'armée ou le ministère de l'intérieur et de l'administration (en). Les universités suivantes disposent d'un ou plusieurs centres :
 Białystok (université de médecine de Białystok) ;
@@ -927,62 +1034,66 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Sénégal</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centre Hospitalier National Universitaire de Fann : CHNU FANN[20],[21]
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centre Hospitalier National Universitaire de Fann : CHNU FANN,
 </t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Suisse</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>La Suisse compte cinq centres hospitaliers universitaires dont deux situés en Suisse romande (HUG et CHUV), les trois autres se trouvant dans des cantons alémaniques.
 Hôpitaux universitaires de Genève (HUG), à Genève, affiliés à la Faculté de médecine de l'Université de Genève ;
@@ -993,31 +1104,33 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Tunisie</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les CHUs affiliés à la faculté de médecine de Tunis :
@@ -1025,8 +1138,8 @@
 CHU La Rabta de Tunis ;
 CHU Mongi-Slim de La Marsa ;
 CHU Habib-Thameur de Montfleury de Tunis ;
-CHU Taher-Maamouri (Notre Dame de Sion ville) de Nabeul[22] ;
-CHU de Bizerte[23] ;
+CHU Taher-Maamouri (Notre Dame de Sion ville) de Nabeul ;
+CHU de Bizerte ;
 Hôpital militaire de Tunis.
 Les CHU affiliés à la faculté de médecine de Sousse :
 CHU Sahloul de Sousse ;
